--- a/download/Tableau_de_synthese_-_Epreuve_E4_-_BTS_SIO_2023 (1).xlsx
+++ b/download/Tableau_de_synthese_-_Epreuve_E4_-_BTS_SIO_2023 (1).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iecm064.sharepoint.com/sites/int_2022-23SIO2SISRLM/Documents partages/General/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibrahim\PROGRAMMATION\Portfolio_IN\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80F0D152-4A9E-46A5-98BF-DB148321C9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A314AD7-9A28-4ACD-9478-65C8A4652D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t xml:space="preserve">Tableau de synthèse des réalisations professionnelles </t>
   </si>
   <si>
-    <t>N° candidat :</t>
-  </si>
-  <si>
     <t>Option :</t>
   </si>
   <si>
@@ -214,6 +211,9 @@
   </si>
   <si>
     <t>Certification mooc ANSSI  et CNIL</t>
+  </si>
+  <si>
+    <t>N° candidat :02143547438</t>
   </si>
 </sst>
 </file>
@@ -639,15 +639,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -657,6 +669,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -671,27 +692,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1153,7 +1153,7 @@
   <dimension ref="A1:AQ86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
+      <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1166,112 +1166,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="27"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:43" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
+      <c r="A3" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="28"/>
+      <c r="H3" s="29"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38"/>
+      <c r="A4" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="H4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="11" t="s">
+    </row>
+    <row r="5" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="B5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="7" t="s">
+    </row>
+    <row r="6" spans="1:43" s="2" customFormat="1" ht="325.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="31"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="23" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:43" s="2" customFormat="1" ht="325.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="23" t="s">
+      <c r="D6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="E6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="F6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="G6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="H6" s="24" t="s">
         <v>19</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>20</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
@@ -1310,16 +1310,16 @@
       <c r="AQ6"/>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="30"/>
+      <c r="A7" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="34"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="12"/>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="16"/>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="16"/>
@@ -1544,7 +1544,7 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="13"/>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="13"/>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="16"/>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="13"/>
@@ -1732,7 +1732,7 @@
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="13"/>
@@ -1779,7 +1779,7 @@
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="13"/>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="13"/>
@@ -1873,7 +1873,7 @@
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="13"/>
@@ -1920,7 +1920,7 @@
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="16"/>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="13"/>
@@ -2014,7 +2014,7 @@
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="13"/>
@@ -2061,7 +2061,7 @@
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="13"/>
@@ -2108,7 +2108,7 @@
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="13"/>
@@ -2154,16 +2154,16 @@
       <c r="AQ24"/>
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A25" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="42"/>
+      <c r="A25" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="37"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -2202,14 +2202,14 @@
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="16"/>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
-      <c r="G26" s="39"/>
+      <c r="G26" s="25"/>
       <c r="H26" s="22"/>
       <c r="I26"/>
       <c r="J26"/>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="21"/>
@@ -2296,7 +2296,7 @@
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="16"/>
@@ -2343,7 +2343,7 @@
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="16"/>
@@ -2390,7 +2390,7 @@
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="16"/>
@@ -2437,7 +2437,7 @@
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="21"/>
@@ -2484,7 +2484,7 @@
     </row>
     <row r="32" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="16"/>
@@ -2530,16 +2530,16 @@
       <c r="AQ32"/>
     </row>
     <row r="33" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="33"/>
+      <c r="A33" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="40"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
@@ -2578,7 +2578,7 @@
     </row>
     <row r="34" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="16"/>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="35" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="16"/>
@@ -2672,7 +2672,7 @@
     </row>
     <row r="36" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="21"/>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="37" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="16"/>
@@ -2947,17 +2947,17 @@
     <row r="86" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="A25:H25"/>
     <mergeCell ref="A33:H33"/>
     <mergeCell ref="B5:B6"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2969,6 +2969,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001D12A9BC076CEC4682EEF1CD42C30158" ma:contentTypeVersion="6" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="58ab012b7c9abc80c97652c52b90423d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8c0f95de-9df6-41b0-823b-95cf7bcd2b16" xmlns:ns3="2d190b98-133a-421f-9eb8-e032cc46f289" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c77e7bfe03c572fcd608706883ab911" ns2:_="" ns3:_="">
     <xsd:import namespace="8c0f95de-9df6-41b0-823b-95cf7bcd2b16"/>
@@ -3145,15 +3154,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3169,6 +3169,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AA993E0-5AA3-44D9-9B28-3EF19CD4963A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{587F8F9D-BE26-40E9-90BC-D9E91EB0E63E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3183,14 +3191,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AA993E0-5AA3-44D9-9B28-3EF19CD4963A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/download/Tableau_de_synthese_-_Epreuve_E4_-_BTS_SIO_2023 (1).xlsx
+++ b/download/Tableau_de_synthese_-_Epreuve_E4_-_BTS_SIO_2023 (1).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibrahim\PROGRAMMATION\Portfolio_IN\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A314AD7-9A28-4ACD-9478-65C8A4652D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37924E8B-BAAF-47B0-A740-184FC1EBB702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$41</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>N° candidat :02143547438</t>
+  </si>
+  <si>
+    <t>Adresse URL Portfolio : https://firewall-in.github.io/Portfolio_IN/</t>
   </si>
 </sst>
 </file>
@@ -565,7 +568,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -642,9 +645,57 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -653,45 +704,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -717,13 +729,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>284921</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>205410</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>410817</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>331305</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -772,13 +784,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>284922</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>205410</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>410817</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>331305</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1150,10 +1162,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ86"/>
+  <dimension ref="A1:AQ87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:H3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1166,160 +1178,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="26"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:43" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="27" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:43" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:43" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:43" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="10" t="s">
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H5" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B6" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:43" s="2" customFormat="1" ht="325.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="23" t="s">
+    <row r="7" spans="1:43" s="2" customFormat="1" ht="325.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="30"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E7" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G7" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H7" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-      <c r="AB6"/>
-      <c r="AC6"/>
-      <c r="AD6"/>
-      <c r="AE6"/>
-      <c r="AF6"/>
-      <c r="AG6"/>
-      <c r="AH6"/>
-      <c r="AI6"/>
-      <c r="AJ6"/>
-      <c r="AK6"/>
-      <c r="AL6"/>
-      <c r="AM6"/>
-      <c r="AN6"/>
-      <c r="AO6"/>
-      <c r="AP6"/>
-      <c r="AQ6"/>
-    </row>
-    <row r="7" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="34"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
@@ -1357,14 +1337,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="A8" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="34"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1401,17 +1383,15 @@
       <c r="AP8"/>
       <c r="AQ8"/>
     </row>
-    <row r="9" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
+    <row r="9" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -1450,14 +1430,14 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="16"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="13"/>
       <c r="H10" s="14"/>
       <c r="I10"/>
       <c r="J10"/>
@@ -1497,14 +1477,14 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="G11" s="16"/>
       <c r="H11" s="14"/>
       <c r="I11"/>
       <c r="J11"/>
@@ -1544,10 +1524,10 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="13"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -1591,14 +1571,14 @@
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="13"/>
       <c r="F13" s="13"/>
-      <c r="G13" s="16"/>
+      <c r="G13" s="13"/>
       <c r="H13" s="14"/>
       <c r="I13"/>
       <c r="J13"/>
@@ -1638,14 +1618,14 @@
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="16"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="13"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="16"/>
       <c r="H14" s="14"/>
       <c r="I14"/>
       <c r="J14"/>
@@ -1685,14 +1665,14 @@
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="13"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="13"/>
       <c r="H15" s="14"/>
       <c r="I15"/>
       <c r="J15"/>
@@ -1732,13 +1712,13 @@
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="13"/>
-      <c r="D16" s="16"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="13"/>
-      <c r="F16" s="16"/>
+      <c r="F16" s="13"/>
       <c r="G16" s="16"/>
       <c r="H16" s="14"/>
       <c r="I16"/>
@@ -1779,13 +1759,13 @@
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
+      <c r="F17" s="16"/>
       <c r="G17" s="16"/>
       <c r="H17" s="14"/>
       <c r="I17"/>
@@ -1826,14 +1806,14 @@
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="E18" s="16"/>
+      <c r="E18" s="13"/>
       <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="G18" s="16"/>
       <c r="H18" s="14"/>
       <c r="I18"/>
       <c r="J18"/>
@@ -1873,15 +1853,15 @@
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
+      <c r="E19" s="16"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
-      <c r="H19" s="17"/>
+      <c r="H19" s="14"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1920,15 +1900,15 @@
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="8"/>
-      <c r="C20" s="16"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
-      <c r="H20" s="14"/>
+      <c r="H20" s="17"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -1967,15 +1947,15 @@
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="8"/>
-      <c r="C21" s="13"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
-      <c r="H21" s="17"/>
+      <c r="H21" s="14"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -2014,7 +1994,7 @@
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="13"/>
@@ -2061,7 +2041,7 @@
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="13"/>
@@ -2108,15 +2088,15 @@
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
-      <c r="F24" s="16"/>
+      <c r="F24" s="13"/>
       <c r="G24" s="13"/>
-      <c r="H24" s="14"/>
+      <c r="H24" s="17"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -2153,17 +2133,17 @@
       <c r="AP24"/>
       <c r="AQ24"/>
     </row>
-    <row r="25" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A25" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="37"/>
+    <row r="25" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -2200,17 +2180,17 @@
       <c r="AP25"/>
       <c r="AQ25"/>
     </row>
-    <row r="26" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="22"/>
+    <row r="26" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A26" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="37"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -2249,14 +2229,14 @@
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" s="20"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="21"/>
       <c r="E27" s="21"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="25"/>
       <c r="H27" s="22"/>
       <c r="I27"/>
       <c r="J27"/>
@@ -2296,13 +2276,13 @@
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" s="20"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="16"/>
       <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
+      <c r="F28" s="16"/>
       <c r="G28" s="21"/>
       <c r="H28" s="22"/>
       <c r="I28"/>
@@ -2343,13 +2323,13 @@
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="16"/>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
-      <c r="F29" s="16"/>
+      <c r="F29" s="21"/>
       <c r="G29" s="21"/>
       <c r="H29" s="22"/>
       <c r="I29"/>
@@ -2390,13 +2370,13 @@
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="16"/>
       <c r="D30" s="21"/>
       <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
+      <c r="F30" s="16"/>
       <c r="G30" s="21"/>
       <c r="H30" s="22"/>
       <c r="I30"/>
@@ -2437,14 +2417,14 @@
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31" s="20"/>
-      <c r="C31" s="21"/>
+      <c r="C31" s="16"/>
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
-      <c r="G31" s="16"/>
+      <c r="G31" s="21"/>
       <c r="H31" s="22"/>
       <c r="I31"/>
       <c r="J31"/>
@@ -2484,14 +2464,14 @@
     </row>
     <row r="32" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" s="20"/>
-      <c r="C32" s="16"/>
+      <c r="C32" s="21"/>
       <c r="D32" s="21"/>
       <c r="E32" s="21"/>
       <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
+      <c r="G32" s="16"/>
       <c r="H32" s="22"/>
       <c r="I32"/>
       <c r="J32"/>
@@ -2529,17 +2509,17 @@
       <c r="AP32"/>
       <c r="AQ32"/>
     </row>
-    <row r="33" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A33" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="40"/>
+    <row r="33" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="20"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="22"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
@@ -2576,17 +2556,17 @@
       <c r="AP33"/>
       <c r="AQ33"/>
     </row>
-    <row r="34" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="22"/>
+    <row r="34" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A34" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="40"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -2625,14 +2605,14 @@
     </row>
     <row r="35" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="16"/>
       <c r="D35" s="21"/>
       <c r="E35" s="21"/>
       <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
+      <c r="G35" s="16"/>
       <c r="H35" s="22"/>
       <c r="I35"/>
       <c r="J35"/>
@@ -2672,14 +2652,14 @@
     </row>
     <row r="36" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" s="20"/>
-      <c r="C36" s="21"/>
+      <c r="C36" s="16"/>
       <c r="D36" s="21"/>
       <c r="E36" s="21"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
       <c r="H36" s="22"/>
       <c r="I36"/>
       <c r="J36"/>
@@ -2719,13 +2699,13 @@
     </row>
     <row r="37" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37" s="20"/>
-      <c r="C37" s="16"/>
+      <c r="C37" s="21"/>
       <c r="D37" s="21"/>
       <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
+      <c r="F37" s="16"/>
       <c r="G37" s="16"/>
       <c r="H37" s="22"/>
       <c r="I37"/>
@@ -2765,13 +2745,15 @@
       <c r="AQ37"/>
     </row>
     <row r="38" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
+      <c r="A38" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="B38" s="20"/>
-      <c r="C38" s="21"/>
+      <c r="C38" s="16"/>
       <c r="D38" s="21"/>
       <c r="E38" s="21"/>
       <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
+      <c r="G38" s="16"/>
       <c r="H38" s="22"/>
       <c r="I38"/>
       <c r="J38"/>
@@ -2854,15 +2836,15 @@
       <c r="AP39"/>
       <c r="AQ39"/>
     </row>
-    <row r="40" spans="1:43" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
+    <row r="40" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="19"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="22"/>
       <c r="I40"/>
       <c r="J40"/>
       <c r="K40"/>
@@ -2899,7 +2881,51 @@
       <c r="AP40"/>
       <c r="AQ40"/>
     </row>
-    <row r="41" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:43" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
+      <c r="X41"/>
+      <c r="Y41"/>
+      <c r="Z41"/>
+      <c r="AA41"/>
+      <c r="AB41"/>
+      <c r="AC41"/>
+      <c r="AD41"/>
+      <c r="AE41"/>
+      <c r="AF41"/>
+      <c r="AG41"/>
+      <c r="AH41"/>
+      <c r="AI41"/>
+      <c r="AJ41"/>
+      <c r="AK41"/>
+      <c r="AL41"/>
+      <c r="AM41"/>
+      <c r="AN41"/>
+      <c r="AO41"/>
+      <c r="AP41"/>
+      <c r="AQ41"/>
+    </row>
     <row r="42" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2945,19 +2971,20 @@
     <row r="84" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="85" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="86" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="B5:B6"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
     <mergeCell ref="F3:H3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2969,15 +2996,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001D12A9BC076CEC4682EEF1CD42C30158" ma:contentTypeVersion="6" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="58ab012b7c9abc80c97652c52b90423d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8c0f95de-9df6-41b0-823b-95cf7bcd2b16" xmlns:ns3="2d190b98-133a-421f-9eb8-e032cc46f289" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c77e7bfe03c572fcd608706883ab911" ns2:_="" ns3:_="">
     <xsd:import namespace="8c0f95de-9df6-41b0-823b-95cf7bcd2b16"/>
@@ -3154,6 +3172,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3169,14 +3196,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AA993E0-5AA3-44D9-9B28-3EF19CD4963A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{587F8F9D-BE26-40E9-90BC-D9E91EB0E63E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3191,6 +3210,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AA993E0-5AA3-44D9-9B28-3EF19CD4963A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
